--- a/va_facility_data_2025-02-20/Pocatello VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pocatello%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Pocatello VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pocatello%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rba5981d55e4a4f0ea0f62ca262bce2f3"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R890acfe0c8544ba39f9649fb887a1062"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9b246109d67d43cebd8e448ed3bb7299"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re42883971ddf4a8ca9b45b113b5ca69a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf2bf03e863c6461398fde9bdc06e5bb5"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb8cab4af296f4616a8de1099c152613c"/>
   </x:sheets>
 </x:workbook>
 </file>
